--- a/Ejercicio clase 1/ejercicio_2_clase1.xlsx
+++ b/Ejercicio clase 1/ejercicio_2_clase1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a8cb20f8fcdf28e/Desarrollo de software/Semestres/Semestre 1/Programacion 1/Ejercicios/Ejercicio clase 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3425F19-4148-3140-929A-38174AEE1269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{E3425F19-4148-3140-929A-38174AEE1269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D47F8E6D-9E0F-7C40-AB01-62BBF2FD05AF}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="2120" windowWidth="28040" windowHeight="17440" xr2:uid="{0C0D6A53-9B38-E94C-82C6-74908AB88937}"/>
+    <workbookView xWindow="3080" yWindow="3060" windowWidth="28040" windowHeight="17440" xr2:uid="{0C0D6A53-9B38-E94C-82C6-74908AB88937}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>#Ejercicio 2</t>
   </si>
@@ -51,6 +51,19 @@
   </si>
   <si>
     <t>50 y 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Una practica cotidiana en desarrollo de software es mirar programas de otros. En este ejercicio, van a tener acceso al codigo, pueden probarlo con distintos numeros y verificar el resultado. Lo que les pido es que cuenten en sus palabras, lo que hace el programa.
+num1 = int(input("primer numero: "))
+num2 = int(input("segundo numero: "))
+producto = num1 * num2
+if producto &lt; 1000:
+    print(producto)
+elif (num1 == 50) and (num2 == 50):
+    print("50 y 50")
+else:
+    print(num1 + num2)</t>
   </si>
 </sst>
 </file>
@@ -94,9 +107,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,20 +430,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C4E390-2D83-A240-BC50-90F60D1BADD6}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="334" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -435,7 +466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10</v>
       </c>
@@ -446,7 +477,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>50</v>
       </c>
@@ -457,7 +488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>51</v>
       </c>
@@ -468,7 +499,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>100</v>
       </c>
@@ -480,6 +511,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Ejercicio clase 1/ejercicio_2_clase1.xlsx
+++ b/Ejercicio clase 1/ejercicio_2_clase1.xlsx
@@ -433,7 +433,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Ejercicio clase 1/ejercicio_2_clase1.xlsx
+++ b/Ejercicio clase 1/ejercicio_2_clase1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a8cb20f8fcdf28e/Desarrollo de software/Semestres/Semestre 1/Programacion 1/Ejercicios/Ejercicio clase 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{E3425F19-4148-3140-929A-38174AEE1269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D47F8E6D-9E0F-7C40-AB01-62BBF2FD05AF}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{E3425F19-4148-3140-929A-38174AEE1269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4490294E-108A-C946-8DB7-8BBD586177A7}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="3060" windowWidth="28040" windowHeight="17440" xr2:uid="{0C0D6A53-9B38-E94C-82C6-74908AB88937}"/>
   </bookViews>
@@ -55,15 +55,7 @@
   <si>
     <t xml:space="preserve">
 Una practica cotidiana en desarrollo de software es mirar programas de otros. En este ejercicio, van a tener acceso al codigo, pueden probarlo con distintos numeros y verificar el resultado. Lo que les pido es que cuenten en sus palabras, lo que hace el programa.
-num1 = int(input("primer numero: "))
-num2 = int(input("segundo numero: "))
-producto = num1 * num2
-if producto &lt; 1000:
-    print(producto)
-elif (num1 == 50) and (num2 == 50):
-    print("50 y 50")
-else:
-    print(num1 + num2)</t>
+10</t>
   </si>
 </sst>
 </file>
@@ -433,7 +425,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
